--- a/data/ch08/가장_좋아하는_운동.xlsx
+++ b/data/ch08/가장_좋아하는_운동.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\chart_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00104D1-528E-4428-B4E1-057B86507F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF40EB-8EFC-46C8-85A7-C5BE44247D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="4575" windowWidth="14040" windowHeight="9525" xr2:uid="{7F1F42A8-2BB5-456F-A093-63889FCB2872}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7F1F42A8-2BB5-456F-A093-63889FCB2872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -221,6 +221,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7F68-41FB-AC7F-CB08E2A93FB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -236,6 +241,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7F68-41FB-AC7F-CB08E2A93FB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -251,6 +261,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7F68-41FB-AC7F-CB08E2A93FB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -266,6 +281,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7F68-41FB-AC7F-CB08E2A93FB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -281,6 +301,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7F68-41FB-AC7F-CB08E2A93FB2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1379,7 +1404,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S21" sqref="R21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
